--- a/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
+++ b/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\laboratorio\forms\laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1845B560-534D-4593-BE57-27E42D4148B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF28001-6EA8-439F-93A3-E2DC40BF9BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="15090" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -318,6 +319,18 @@
   </si>
   <si>
     <t>select_multiple</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>visita_id</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>id_estudo</t>
   </si>
 </sst>
 </file>
@@ -982,7 +995,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1892,8 +1905,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" activeCellId="3" sqref="A29:XFD32 A18:XFD20 A14:XFD15 A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1915,20 +1928,36 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>

--- a/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
+++ b/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\laboratorio\forms\laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF28001-6EA8-439F-93A3-E2DC40BF9BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6D99C-44E4-499B-B65D-BA0A58EEA7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -228,9 +228,6 @@
     <t>(data('ano')*12) + data('mes')</t>
   </si>
   <si>
-    <t>Nome genérico do medicamento</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -279,12 +276,6 @@
     <t>id_lamina</t>
   </si>
   <si>
-    <t>Código de lamina</t>
-  </si>
-  <si>
-    <t>Foram coradas e observadas as laminas</t>
-  </si>
-  <si>
     <t>Resultado de GE</t>
   </si>
   <si>
@@ -331,6 +322,52 @@
   </si>
   <si>
     <t>id_estudo</t>
+  </si>
+  <si>
+    <t>DOB_ou_idade</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>Está indroduzindo os resultados de analises do dia {{data.id_visita}} de um paciente se sexo: {{data.sexo}}
+com codigo de estudo: {{data.id_estudo}}
+Data de nascimento: {{data.dn}}</t>
+  </si>
+  <si>
+    <t>com codigo de estudo: {{data.id_estudo}}</t>
+  </si>
+  <si>
+    <t>Data de nascimento: {{data.dn}}</t>
+  </si>
+  <si>
+    <t>Está indroduzindo os resultados de analises do dia {{data.id_visita}} de um paciente se sexo: {{data.sexo}}
+com codigo de estudo: {{data.id_estudo}}
+Tem {{data.ano}} anos e {{data.mes}} meses</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1'</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>apresenta_idade</t>
+  </si>
+  <si>
+    <t>apresenta_dob</t>
   </si>
 </sst>
 </file>
@@ -405,15 +442,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -439,6 +482,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -456,7 +514,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -501,6 +559,9 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -977,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -993,13 +1054,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1116,121 +1177,129 @@
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
+    <row r="7" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="B8" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="19"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="2" t="s">
-        <v>89</v>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="19"/>
@@ -1238,21 +1307,63 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="19"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D16" s="8" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1330,46 +1441,46 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,46 +1497,46 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,10 +2014,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1932,15 +2043,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,103 +2067,119 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="B14" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B15" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,12 +2191,12 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -2102,6 +2229,22 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
+++ b/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\laboratorio\forms\laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6D99C-44E4-499B-B65D-BA0A58EEA7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E9FA0-BB84-461D-AE6A-F10A61FE5B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="30" windowWidth="23505" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>type</t>
   </si>
@@ -216,18 +216,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
-    <t>ano_em_mes</t>
-  </si>
-  <si>
-    <t>(data('ano')*12) + data('mes')</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -273,15 +261,9 @@
     <t>Comentário</t>
   </si>
   <si>
-    <t>id_lamina</t>
-  </si>
-  <si>
     <t>Resultado de GE</t>
   </si>
   <si>
-    <t>observados</t>
-  </si>
-  <si>
     <t>resultado</t>
   </si>
   <si>
@@ -334,40 +316,27 @@
   </si>
   <si>
     <t>mes</t>
+  </si>
+  <si>
+    <t>apresenta_dob</t>
+  </si>
+  <si>
+    <t>codigo_lamina</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>dn_idade_display_longo</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
   </si>
   <si>
     <t>Está indroduzindo os resultados de analises do dia {{data.id_visita}} de um paciente se sexo: {{data.sexo}}
 com codigo de estudo: {{data.id_estudo}}
-Data de nascimento: {{data.dn}}</t>
-  </si>
-  <si>
-    <t>com codigo de estudo: {{data.id_estudo}}</t>
-  </si>
-  <si>
-    <t>Data de nascimento: {{data.dn}}</t>
-  </si>
-  <si>
-    <t>Está indroduzindo os resultados de analises do dia {{data.id_visita}} de um paciente se sexo: {{data.sexo}}
-com codigo de estudo: {{data.id_estudo}}
-Tem {{data.ano}} anos e {{data.mes}} meses</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>data('DOB_ou_idade')=='1'</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>apresenta_idade</t>
-  </si>
-  <si>
-    <t>apresenta_dob</t>
+{{calculates.dn_idade_display_longo}}
+{{data.codigo_lamina}}</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,7 +999,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,7 +1007,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1054,13 +1023,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1176,194 +1145,112 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="19"/>
+    <row r="4" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:23" ht="63" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:23" ht="63" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="19"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>76</v>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1441,46 +1328,46 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,46 +1384,46 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,7 +1856,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1987,20 +1874,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2014,10 +1897,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2043,15 +1926,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +1950,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2075,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,23 +1966,23 @@
         <v>49</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,59 +1995,55 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>79</v>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -2179,24 +2058,24 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -2241,10 +2120,6 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
+++ b/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\laboratorio\forms\laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E9FA0-BB84-461D-AE6A-F10A61FE5B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C8B21-3107-4548-AA94-BF2F34B22BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1005" yWindow="30" windowWidth="23505" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
+++ b/app/config/tables/laboratorio/forms/laboratorio/laboratorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\laboratorio\forms\laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C8B21-3107-4548-AA94-BF2F34B22BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBE3A07-14DD-4F69-BD68-FAF2644FA4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="30" windowWidth="23505" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="8685" windowWidth="19500" windowHeight="10185" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>Resultado de GE</t>
   </si>
   <si>
-    <t>resultado</t>
-  </si>
-  <si>
     <t>Positivo</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
 com codigo de estudo: {{data.id_estudo}}
 {{calculates.dn_idade_display_longo}}
 {{data.codigo_lamina}}</t>
+  </si>
+  <si>
+    <t>resultado_lab</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1026,10 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1153,10 +1153,10 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="19"/>
     </row>
@@ -1172,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>70</v>
@@ -1186,7 +1186,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="19"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>62</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="10" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1270,8 +1270,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,46 +1384,46 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1875,10 +1875,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,10 +2003,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,12 +2022,12 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>63</v>
